--- a/data/excel/bets.xlsx
+++ b/data/excel/bets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,6 +2311,890 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>The Dabbawala Dominators</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:33:46.468301</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BizTech - Sunrisers</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:33:55.617737</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BizTech - Kings</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:34:15.283171</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BizTech - Royals</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:34:22.228932</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MI OwlRisers</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:34:29.898312</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Royal Troubleshooters Bangalore</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:34:44.801321</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>The Winning Team</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:38:46.354441</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Chennai Debug Kings</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-03-29T18:41:41.932366</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>9</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>The Dabbawala Dominators</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:16:51.346479</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>9</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MI OwlRisers</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:17:08.578459</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BizTech - Kings</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:17:33.290553</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>9</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Royal Troubleshooters Bangalore</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:18:00.144739</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BizTech - Sunrisers</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:18:10.809773</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The Winning Team</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:18:31.837753</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Royal Troubleshooters Bangalore</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:20:27.624399</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BizTech - Kings</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:20:49.757917</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>The Winning Team</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:21:33.160570</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MI OwlRisers</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:21:53.981168</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>The Dabbawala Dominators</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:22:12.981734</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BizTech - Sunrisers</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:22:25.447246</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BizTech - Royals</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:23:04.035246</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MI OwlRisers</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>80000000</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:25:01.493544</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BizTech - Sunrisers</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:25:34.508932</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BizTech - Kings</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:25:48.102301</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>The Winning Team</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:26:06.178712</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The Dabbawala Dominators</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-03-31T02:26:14.544259</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
